--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.760574</v>
+        <v>3.505203</v>
       </c>
       <c r="H2">
-        <v>5.281722</v>
+        <v>10.515609</v>
       </c>
       <c r="I2">
-        <v>0.2878920521313718</v>
+        <v>0.445953142814298</v>
       </c>
       <c r="J2">
-        <v>0.2878920521313718</v>
+        <v>0.445953142814298</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N2">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q2">
-        <v>1.244010438098</v>
+        <v>3.914242664085</v>
       </c>
       <c r="R2">
-        <v>11.196093942882</v>
+        <v>35.228183976765</v>
       </c>
       <c r="S2">
-        <v>0.001493538945551058</v>
+        <v>0.003645316553776809</v>
       </c>
       <c r="T2">
-        <v>0.001493538945551058</v>
+        <v>0.00364531655377681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.760574</v>
+        <v>3.505203</v>
       </c>
       <c r="H3">
-        <v>5.281722</v>
+        <v>10.515609</v>
       </c>
       <c r="I3">
-        <v>0.2878920521313718</v>
+        <v>0.445953142814298</v>
       </c>
       <c r="J3">
-        <v>0.2878920521313718</v>
+        <v>0.445953142814298</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q3">
-        <v>197.06458070516</v>
+        <v>392.34440556402</v>
       </c>
       <c r="R3">
-        <v>1773.58122634644</v>
+        <v>3531.09965007618</v>
       </c>
       <c r="S3">
-        <v>0.2365925695300798</v>
+        <v>0.3653885768266682</v>
       </c>
       <c r="T3">
-        <v>0.2365925695300798</v>
+        <v>0.3653885768266682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.760574</v>
+        <v>3.505203</v>
       </c>
       <c r="H4">
-        <v>5.281722</v>
+        <v>10.515609</v>
       </c>
       <c r="I4">
-        <v>0.2878920521313718</v>
+        <v>0.445953142814298</v>
       </c>
       <c r="J4">
-        <v>0.2878920521313718</v>
+        <v>0.445953142814298</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P4">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q4">
-        <v>41.48476607967</v>
+        <v>82.593816855615</v>
       </c>
       <c r="R4">
-        <v>373.36289471703</v>
+        <v>743.344351700535</v>
       </c>
       <c r="S4">
-        <v>0.04980594365574097</v>
+        <v>0.076919249433853</v>
       </c>
       <c r="T4">
-        <v>0.04980594365574098</v>
+        <v>0.07691924943385302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.409864</v>
       </c>
       <c r="I5">
-        <v>0.02234055258015711</v>
+        <v>0.01738179300185462</v>
       </c>
       <c r="J5">
-        <v>0.02234055258015711</v>
+        <v>0.01738179300185462</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N5">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q5">
-        <v>0.09653576886488888</v>
+        <v>0.1525643598266667</v>
       </c>
       <c r="R5">
-        <v>0.8688219197839999</v>
+        <v>1.37307923844</v>
       </c>
       <c r="S5">
-        <v>0.0001158992931432852</v>
+        <v>0.0001420825007849929</v>
       </c>
       <c r="T5">
-        <v>0.0001158992931432852</v>
+        <v>0.0001420825007849929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.409864</v>
       </c>
       <c r="I6">
-        <v>0.02234055258015711</v>
+        <v>0.01738179300185462</v>
       </c>
       <c r="J6">
-        <v>0.02234055258015711</v>
+        <v>0.01738179300185462</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q6">
         <v>15.29229999347556</v>
@@ -818,10 +818,10 @@
         <v>137.63069994128</v>
       </c>
       <c r="S6">
-        <v>0.01835968968413646</v>
+        <v>0.01424165007014673</v>
       </c>
       <c r="T6">
-        <v>0.01835968968413646</v>
+        <v>0.01424165007014672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.409864</v>
       </c>
       <c r="I7">
-        <v>0.02234055258015711</v>
+        <v>0.01738179300185462</v>
       </c>
       <c r="J7">
-        <v>0.02234055258015711</v>
+        <v>0.01738179300185462</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P7">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q7">
         <v>3.219236484706667</v>
@@ -880,10 +880,10 @@
         <v>28.97312836236</v>
       </c>
       <c r="S7">
-        <v>0.003864963602877361</v>
+        <v>0.002998060430922901</v>
       </c>
       <c r="T7">
-        <v>0.003864963602877361</v>
+        <v>0.002998060430922901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.654603</v>
       </c>
       <c r="I8">
-        <v>0.6897673952884711</v>
+        <v>0.5366650641838474</v>
       </c>
       <c r="J8">
-        <v>0.6897673952884711</v>
+        <v>0.5366650641838474</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N8">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q8">
-        <v>2.980554111326999</v>
+        <v>4.710443965694999</v>
       </c>
       <c r="R8">
-        <v>26.824987001943</v>
+        <v>42.393995691255</v>
       </c>
       <c r="S8">
-        <v>0.003578405380099001</v>
+        <v>0.004386815237935689</v>
       </c>
       <c r="T8">
-        <v>0.003578405380099001</v>
+        <v>0.00438681523793569</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.654603</v>
       </c>
       <c r="I9">
-        <v>0.6897673952884711</v>
+        <v>0.5366650641838474</v>
       </c>
       <c r="J9">
-        <v>0.6897673952884711</v>
+        <v>0.5366650641838474</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q9">
         <v>472.15170245334</v>
@@ -1004,10 +1004,10 @@
         <v>4249.36532208006</v>
       </c>
       <c r="S9">
-        <v>0.566857748316374</v>
+        <v>0.4397127527731856</v>
       </c>
       <c r="T9">
-        <v>0.566857748316374</v>
+        <v>0.4397127527731856</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.654603</v>
       </c>
       <c r="I10">
-        <v>0.6897673952884711</v>
+        <v>0.5366650641838474</v>
       </c>
       <c r="J10">
-        <v>0.6897673952884711</v>
+        <v>0.5366650641838474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P10">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q10">
         <v>99.39433489420499</v>
@@ -1066,10 +1066,10 @@
         <v>894.549014047845</v>
       </c>
       <c r="S10">
-        <v>0.119331241591998</v>
+        <v>0.09256549617272614</v>
       </c>
       <c r="T10">
-        <v>0.119331241591998</v>
+        <v>0.09256549617272615</v>
       </c>
     </row>
   </sheetData>
